--- a/src/main/resources/static/excel/人员导入模板.xlsx
+++ b/src/main/resources/static/excel/人员导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="258"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="258"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>医德医风人员档案导入模板</t>
   </si>
@@ -96,14 +96,22 @@
   </si>
   <si>
     <r>
+      <t>身份证件类型</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>身份证</t>
     </r>
     <r>
@@ -187,11 +195,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -226,7 +234,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,130 +333,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,37 +406,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,139 +526,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +609,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -612,6 +659,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,67 +701,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,133 +726,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,35 +1247,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="15.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="17" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.75" customWidth="1"/>
-    <col min="16" max="16" width="46" customWidth="1"/>
-    <col min="17" max="17" width="38.875" customWidth="1"/>
-    <col min="18" max="18" width="37.75" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="3" customWidth="1"/>
+    <col min="3" max="4" width="21.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="15.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="17" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.75" customWidth="1"/>
+    <col min="17" max="17" width="46" customWidth="1"/>
+    <col min="18" max="18" width="38.875" customWidth="1"/>
+    <col min="19" max="19" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customHeight="1" spans="1:18">
+    <row r="1" ht="54" customHeight="1" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1275,21 +1283,22 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="8"/>
+      <c r="M1" s="9"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
+      <c r="O1" s="8"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:18">
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:19">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1299,16 +1308,16 @@
       <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -1326,13 +1335,13 @@
       <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="12" t="s">
@@ -1341,37 +1350,43 @@
       <c r="Q2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>"身份证,居民户口簿,护照,军官证,驾驶执照,港澳居民来往内地通行证,台湾居民来往内地通行证,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"无,汉族,侗族,瑶族,白族,土家族,哈尼族,哈萨克族,傣族,黎族,傈傈族,佤族,畲族,高山族,拉祜族,水族,东乡族,纳西族,景颇族,柯尔克孜族,土族,达翰尔族,仫佬族,羌族,布朗族,撒拉族,毛南族,仡佬族,锡伯族,阿昌族,普米族,塔吉克族,怒族,乌孜别克族,俄罗斯族,鄂温克族,德昂族,保安族,裕固族,京族,塔塔尔族,独龙族,鄂伦春族,赫哲族,门巴族,珞巴族,基诺族,未说明,壮族,布依族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,朝鲜族,满族"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"无,中国共产党,中国国民党革命委员会,中国民主同盟,中国民主建国会,中国民主促进会,中国农工民主党,中国致公党,九三学社,台湾民主自治同盟"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>"无,执业医师,执业助理医师,注册护士,药剂人员,其他卫生技术人员,其他技术人员,管理人员"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
       <formula1>"无,党委(副)书记,院(所.站)长,副院(所.站)长,科室主任,科室副主任,财务处长,所长,副所长,总护士长,护士长,科长,副护士长,护士长助理,室主任,主任助理,组长,副部长,科长助理,院长助理,副处长,科员,主任调查员,技术主管,副科长,科主任,部长,中心主任,院长,退休返聘,科副主任,所长助理,处长,党委书记,副院长,协理员,主任,副主任"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"无,正处,副处,正科,副科,正股,副股,科员,办事员,正高,副高,中级,初级,员级,高级技师,技师,高级工,中级工,初级工,普通工"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
       <formula1>"无,博士,硕士,学士/大学本科,大专,中专,高中,初中及以下"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
       <formula1>"无,管理人员,医疗人员,护理人员,药学技术人员,医技人员,其他人员"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1379,7 +1394,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E2 G2:L2 O2" listDataValidation="1"/>
+    <ignoredError sqref="P2 H2:M2 F2" listDataValidation="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
